--- a/TemperatureData/St.Mikes02/1102_2024.xlsx
+++ b/TemperatureData/St.Mikes02/1102_2024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uvmoffice.sharepoint.com/sites/TeamMosher/Shared Documents/General/People/Scott, Reed/VTADS/HoboLoggerData/St.Mikes02/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitrepos\VTADS\TemperatureData\St.Mikes02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0843F101-6567-47E0-ADE2-6AEA39C2B67F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E6AAAB2-D071-40FA-B495-E23C219908F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{423861AE-6C7C-4B59-A736-C6B60485E1DE}"/>
+    <workbookView xWindow="23880" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{423861AE-6C7C-4B59-A736-C6B60485E1DE}"/>
   </bookViews>
   <sheets>
     <sheet name="1102_2024" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Plot Title: St. Mikes-2</t>
   </si>
@@ -53,9 +53,6 @@
     <t>End Of File (LGR S/N: 21422117)</t>
   </si>
   <si>
-    <t>Logged</t>
-  </si>
-  <si>
     <t>#Logger was placed in large permanent pond at St. Mikes</t>
   </si>
   <si>
@@ -69,6 +66,9 @@
   </si>
   <si>
     <t>#Logger was retreived on07/29/2024 at unknown time</t>
+  </si>
+  <si>
+    <t># Estimated logger was collected after 12. Deleted all records after that time</t>
   </si>
 </sst>
 </file>
@@ -930,9 +930,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{938F8E08-CE89-497C-90FB-20ADACC85626}">
-  <dimension ref="A1:I5884"/>
+  <dimension ref="A1:I5859"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A5843" workbookViewId="0">
+      <selection activeCell="B5845" sqref="B5845"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -82971,332 +82973,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5860" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5860">
-        <v>5858</v>
-      </c>
-      <c r="B5860" s="1">
-        <v>45502.510416666664</v>
-      </c>
-      <c r="C5860">
-        <v>77.224999999999994</v>
-      </c>
-      <c r="D5860">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="5861" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5861">
-        <v>5859</v>
-      </c>
-      <c r="B5861" s="1">
-        <v>45502.520833333336</v>
-      </c>
-      <c r="C5861">
-        <v>81.266000000000005</v>
-      </c>
-      <c r="D5861">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="5862" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5862">
-        <v>5860</v>
-      </c>
-      <c r="B5862" s="1">
-        <v>45502.53125</v>
-      </c>
-      <c r="C5862">
-        <v>80.734999999999999</v>
-      </c>
-      <c r="D5862">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="5863" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5863">
-        <v>5861</v>
-      </c>
-      <c r="B5863" s="1">
-        <v>45502.541666666664</v>
-      </c>
-      <c r="C5863">
-        <v>82.864000000000004</v>
-      </c>
-      <c r="D5863">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="5864" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5864">
-        <v>5862</v>
-      </c>
-      <c r="B5864" s="1">
-        <v>45502.552083333336</v>
-      </c>
-      <c r="C5864">
-        <v>83.578999999999994</v>
-      </c>
-      <c r="D5864">
-        <v>2048</v>
-      </c>
-    </row>
-    <row r="5865" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5865">
-        <v>5863</v>
-      </c>
-      <c r="B5865" s="1">
-        <v>45502.5625</v>
-      </c>
-      <c r="C5865">
-        <v>83.399000000000001</v>
-      </c>
-      <c r="D5865">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5866" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5866">
-        <v>5864</v>
-      </c>
-      <c r="B5866" s="1">
-        <v>45502.572916666664</v>
-      </c>
-      <c r="C5866">
-        <v>84.653999999999996</v>
-      </c>
-      <c r="D5866">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="5867" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5867">
-        <v>5865</v>
-      </c>
-      <c r="B5867" s="1">
-        <v>45502.583333333336</v>
-      </c>
-      <c r="C5867">
-        <v>85.194000000000003</v>
-      </c>
-      <c r="D5867">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="5868" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5868">
-        <v>5866</v>
-      </c>
-      <c r="B5868" s="1">
-        <v>45502.59375</v>
-      </c>
-      <c r="C5868">
-        <v>81.441999999999993</v>
-      </c>
-      <c r="D5868">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="5869" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5869">
-        <v>5867</v>
-      </c>
-      <c r="B5869" s="1">
-        <v>45502.604166666664</v>
-      </c>
-      <c r="C5869">
-        <v>79.677999999999997</v>
-      </c>
-      <c r="D5869">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5870" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5870">
-        <v>5868</v>
-      </c>
-      <c r="B5870" s="1">
-        <v>45502.614583333336</v>
-      </c>
-      <c r="C5870">
-        <v>81.266000000000005</v>
-      </c>
-      <c r="D5870">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5871" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5871">
-        <v>5869</v>
-      </c>
-      <c r="B5871" s="1">
-        <v>45502.625</v>
-      </c>
-      <c r="C5871">
-        <v>80.911000000000001</v>
-      </c>
-      <c r="D5871">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5872" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5872">
-        <v>5870</v>
-      </c>
-      <c r="B5872" s="1">
-        <v>45502.635416666664</v>
-      </c>
-      <c r="C5872">
-        <v>78.097999999999999</v>
-      </c>
-      <c r="D5872">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5873" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5873">
-        <v>5871</v>
-      </c>
-      <c r="B5873" s="1">
-        <v>45502.645833333336</v>
-      </c>
-      <c r="C5873">
-        <v>74.445999999999998</v>
-      </c>
-      <c r="D5873">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5874" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5874">
-        <v>5872</v>
-      </c>
-      <c r="B5874" s="1">
-        <v>45502.65625</v>
-      </c>
-      <c r="C5874">
-        <v>70.823999999999998</v>
-      </c>
-      <c r="D5874">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5875" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5875">
-        <v>5873</v>
-      </c>
-      <c r="B5875" s="1">
-        <v>45502.665416666663</v>
-      </c>
-      <c r="E5875" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5876" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5876">
-        <v>5874</v>
-      </c>
-      <c r="B5876" s="1">
-        <v>45502.665844907409</v>
-      </c>
-      <c r="F5876" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5877" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5877">
-        <v>5875</v>
-      </c>
-      <c r="B5877" s="1">
-        <v>45502.665868055556</v>
-      </c>
-      <c r="E5877" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5878" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5878">
-        <v>5876</v>
-      </c>
-      <c r="B5878" s="1">
-        <v>45502.666192129633</v>
-      </c>
-      <c r="F5878" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5879" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5879">
-        <v>5877</v>
-      </c>
-      <c r="B5879" s="1">
-        <v>45502.666342592594</v>
-      </c>
-      <c r="E5879" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5880" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5880">
-        <v>5878</v>
-      </c>
-      <c r="B5880" s="1">
-        <v>45502.666666666664</v>
-      </c>
-      <c r="C5880">
-        <v>72.545000000000002</v>
-      </c>
-      <c r="D5880">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5881" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5881">
-        <v>5879</v>
-      </c>
-      <c r="B5881" s="1">
-        <v>45502.666724537034</v>
-      </c>
-      <c r="F5881" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5882" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5882">
-        <v>5880</v>
-      </c>
-      <c r="B5882" s="1">
-        <v>45502.666944444441</v>
-      </c>
-      <c r="G5882" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5883" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5883">
-        <v>5881</v>
-      </c>
-      <c r="B5883" s="1">
-        <v>45502.666956018518</v>
-      </c>
-      <c r="E5883" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5884" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5884">
-        <v>5882</v>
-      </c>
-      <c r="B5884" s="1">
-        <v>45502.667094907411</v>
-      </c>
-      <c r="H5884" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5884" t="s">
-        <v>10</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -83304,36 +82980,41 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00F6016B-0271-40A9-AA29-D55EACD9EAF3}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1:R1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>15</v>
       </c>
     </row>
@@ -83570,15 +83251,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="94106a43-364c-4431-a764-9e3dd608a139" xsi:nil="true"/>
@@ -83589,14 +83261,49 @@
 </p:properties>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53F0854B-8275-40D0-A4D7-F630E0608C49}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53F0854B-8275-40D0-A4D7-F630E0608C49}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="6f61aad6-7023-4354-b4be-ac6efb5d4555"/>
+    <ds:schemaRef ds:uri="94106a43-364c-4431-a764-9e3dd608a139"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{55686838-420F-4BEA-A0A0-5F44A5ACF11F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E451F579-7234-4324-BD87-D0A1E89CC52F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="94106a43-364c-4431-a764-9e3dd608a139"/>
+    <ds:schemaRef ds:uri="6f61aad6-7023-4354-b4be-ac6efb5d4555"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E451F579-7234-4324-BD87-D0A1E89CC52F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{55686838-420F-4BEA-A0A0-5F44A5ACF11F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>